--- a/2013-2021.xlsx
+++ b/2013-2021.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44581098807\Desktop\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15F9E31-D6D7-4E18-9E95-2B807575D6B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE819F-FE16-45A4-A6E9-6F3037AEFBE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="2013-2021" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>tipo_residuo</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>Varricao Mecanizada</t>
-  </si>
-  <si>
-    <t>(Vazio)</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
   </si>
   <si>
     <t>jan/14</t>
@@ -804,9 +798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB56C50-FF62-4C38-99E2-568A1DC80133}">
-  <dimension ref="A1:DD37"/>
+  <dimension ref="A1:DD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -854,262 +850,262 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="DA1" s="1"/>
       <c r="DD1" s="1"/>
@@ -3508,7 +3504,7 @@
     </row>
     <row r="10" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3807,7 +3803,7 @@
     </row>
     <row r="11" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5601,7 +5597,7 @@
     </row>
     <row r="17" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -5900,7 +5896,7 @@
     </row>
     <row r="18" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6199,7 +6195,7 @@
     </row>
     <row r="19" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6498,7 +6494,7 @@
     </row>
     <row r="20" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6797,7 +6793,7 @@
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7096,7 +7092,7 @@
     </row>
     <row r="22" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7395,7 +7391,7 @@
     </row>
     <row r="23" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8292,7 +8288,7 @@
     </row>
     <row r="26" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8591,7 +8587,7 @@
     </row>
     <row r="27" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -9189,7 +9185,7 @@
     </row>
     <row r="29" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -9488,7 +9484,7 @@
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -9787,7 +9783,7 @@
     </row>
     <row r="31" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -10086,7 +10082,7 @@
     </row>
     <row r="32" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11278,604 +11274,6 @@
       </c>
       <c r="CU35">
         <v>499</v>
-      </c>
-    </row>
-    <row r="36" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>3</v>
-      </c>
-      <c r="AQ36">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36">
-        <v>2.96</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>0</v>
-      </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <v>0</v>
-      </c>
-      <c r="BF36">
-        <v>0</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
-      <c r="BI36">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>0</v>
-      </c>
-      <c r="BK36">
-        <v>0</v>
-      </c>
-      <c r="BL36">
-        <v>0</v>
-      </c>
-      <c r="BM36">
-        <v>0</v>
-      </c>
-      <c r="BN36">
-        <v>0</v>
-      </c>
-      <c r="BO36">
-        <v>0</v>
-      </c>
-      <c r="BP36">
-        <v>0</v>
-      </c>
-      <c r="BQ36">
-        <v>0</v>
-      </c>
-      <c r="BR36">
-        <v>0</v>
-      </c>
-      <c r="BS36">
-        <v>0</v>
-      </c>
-      <c r="BT36">
-        <v>0</v>
-      </c>
-      <c r="BU36">
-        <v>0</v>
-      </c>
-      <c r="BV36">
-        <v>0</v>
-      </c>
-      <c r="BW36">
-        <v>0</v>
-      </c>
-      <c r="BX36">
-        <v>0</v>
-      </c>
-      <c r="BY36">
-        <v>0</v>
-      </c>
-      <c r="BZ36">
-        <v>0</v>
-      </c>
-      <c r="CA36">
-        <v>0</v>
-      </c>
-      <c r="CB36">
-        <v>0</v>
-      </c>
-      <c r="CC36">
-        <v>0</v>
-      </c>
-      <c r="CD36">
-        <v>0</v>
-      </c>
-      <c r="CE36">
-        <v>0</v>
-      </c>
-      <c r="CF36">
-        <v>0</v>
-      </c>
-      <c r="CG36">
-        <v>0</v>
-      </c>
-      <c r="CH36">
-        <v>0</v>
-      </c>
-      <c r="CI36">
-        <v>0</v>
-      </c>
-      <c r="CJ36">
-        <v>0</v>
-      </c>
-      <c r="CK36">
-        <v>0</v>
-      </c>
-      <c r="CL36">
-        <v>0</v>
-      </c>
-      <c r="CM36">
-        <v>0</v>
-      </c>
-      <c r="CN36">
-        <v>0</v>
-      </c>
-      <c r="CO36">
-        <v>0</v>
-      </c>
-      <c r="CP36">
-        <v>0</v>
-      </c>
-      <c r="CQ36">
-        <v>0</v>
-      </c>
-      <c r="CR36">
-        <v>0</v>
-      </c>
-      <c r="CS36">
-        <v>0</v>
-      </c>
-      <c r="CT36">
-        <v>0</v>
-      </c>
-      <c r="CU36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>527044.36</v>
-      </c>
-      <c r="C37">
-        <v>486900.51</v>
-      </c>
-      <c r="D37">
-        <v>510833.57</v>
-      </c>
-      <c r="E37">
-        <v>521353.3</v>
-      </c>
-      <c r="F37">
-        <v>523811.98</v>
-      </c>
-      <c r="G37">
-        <v>496693.78</v>
-      </c>
-      <c r="H37">
-        <v>528713.36</v>
-      </c>
-      <c r="I37">
-        <v>529519.39</v>
-      </c>
-      <c r="J37">
-        <v>502566.72</v>
-      </c>
-      <c r="K37">
-        <v>546824.06000000006</v>
-      </c>
-      <c r="L37">
-        <v>511474.82</v>
-      </c>
-      <c r="M37">
-        <v>533303.61</v>
-      </c>
-      <c r="N37">
-        <v>514024.01</v>
-      </c>
-      <c r="O37">
-        <v>470061.54599999997</v>
-      </c>
-      <c r="P37">
-        <v>500234.13</v>
-      </c>
-      <c r="Q37">
-        <v>486075.82</v>
-      </c>
-      <c r="R37">
-        <v>497144.93</v>
-      </c>
-      <c r="S37">
-        <v>451357.46</v>
-      </c>
-      <c r="T37">
-        <v>490529.05</v>
-      </c>
-      <c r="U37">
-        <v>485016.99</v>
-      </c>
-      <c r="V37">
-        <v>505757.06</v>
-      </c>
-      <c r="W37">
-        <v>502459.54</v>
-      </c>
-      <c r="X37">
-        <v>463687.75</v>
-      </c>
-      <c r="Y37">
-        <v>521832.91</v>
-      </c>
-      <c r="Z37">
-        <v>497933.44</v>
-      </c>
-      <c r="AA37">
-        <v>446068.57</v>
-      </c>
-      <c r="AB37">
-        <v>511432.27</v>
-      </c>
-      <c r="AC37">
-        <v>472188.08</v>
-      </c>
-      <c r="AD37">
-        <v>466261.26</v>
-      </c>
-      <c r="AE37">
-        <v>467665.36</v>
-      </c>
-      <c r="AF37">
-        <v>469425.38</v>
-      </c>
-      <c r="AG37">
-        <v>467482.48</v>
-      </c>
-      <c r="AH37">
-        <v>467580.68</v>
-      </c>
-      <c r="AI37">
-        <v>487542.6</v>
-      </c>
-      <c r="AJ37">
-        <v>474840.68</v>
-      </c>
-      <c r="AK37">
-        <v>522303.56</v>
-      </c>
-      <c r="AL37">
-        <v>463884.79999999999</v>
-      </c>
-      <c r="AM37">
-        <v>471502.18</v>
-      </c>
-      <c r="AN37">
-        <v>494948.04</v>
-      </c>
-      <c r="AO37">
-        <v>462757.39</v>
-      </c>
-      <c r="AP37">
-        <v>449509.7</v>
-      </c>
-      <c r="AQ37">
-        <v>451108.13</v>
-      </c>
-      <c r="AR37">
-        <v>432143.07</v>
-      </c>
-      <c r="AS37">
-        <v>461709.39</v>
-      </c>
-      <c r="AT37">
-        <v>440561.52</v>
-      </c>
-      <c r="AU37">
-        <v>437893.52</v>
-      </c>
-      <c r="AV37">
-        <v>396496.69</v>
-      </c>
-      <c r="AW37">
-        <v>490428.44</v>
-      </c>
-      <c r="AX37">
-        <v>461748.59</v>
-      </c>
-      <c r="AY37">
-        <v>422316.02</v>
-      </c>
-      <c r="AZ37">
-        <v>476620.56</v>
-      </c>
-      <c r="BA37">
-        <v>419948.87</v>
-      </c>
-      <c r="BB37">
-        <v>490020.17</v>
-      </c>
-      <c r="BC37">
-        <v>466242.03</v>
-      </c>
-      <c r="BD37">
-        <v>463516.11</v>
-      </c>
-      <c r="BE37">
-        <v>483359.99</v>
-      </c>
-      <c r="BF37">
-        <v>473040.47</v>
-      </c>
-      <c r="BG37">
-        <v>492872.72</v>
-      </c>
-      <c r="BH37">
-        <v>486718.48</v>
-      </c>
-      <c r="BI37">
-        <v>484160.33</v>
-      </c>
-      <c r="BJ37">
-        <v>524597.5</v>
-      </c>
-      <c r="BK37">
-        <v>486848.89</v>
-      </c>
-      <c r="BL37">
-        <v>534651.55000000005</v>
-      </c>
-      <c r="BM37">
-        <v>500877.62</v>
-      </c>
-      <c r="BN37">
-        <v>497681.95</v>
-      </c>
-      <c r="BO37">
-        <v>486910.69</v>
-      </c>
-      <c r="BP37">
-        <v>495068.21</v>
-      </c>
-      <c r="BQ37">
-        <v>511932.41</v>
-      </c>
-      <c r="BR37">
-        <v>481426.59</v>
-      </c>
-      <c r="BS37">
-        <v>531602.1</v>
-      </c>
-      <c r="BT37">
-        <v>501657.64</v>
-      </c>
-      <c r="BU37">
-        <v>529217.84</v>
-      </c>
-      <c r="BV37">
-        <v>466.71300000000002</v>
-      </c>
-      <c r="BW37">
-        <v>438.84899999999999</v>
-      </c>
-      <c r="BX37">
-        <v>474.52</v>
-      </c>
-      <c r="BY37">
-        <v>480.57100000000003</v>
-      </c>
-      <c r="BZ37">
-        <v>479.30200000000002</v>
-      </c>
-      <c r="CA37">
-        <v>433.34199999999998</v>
-      </c>
-      <c r="CB37">
-        <v>469.11599999999999</v>
-      </c>
-      <c r="CC37">
-        <v>468.32499999999999</v>
-      </c>
-      <c r="CD37">
-        <v>459.44099999999997</v>
-      </c>
-      <c r="CE37">
-        <v>484.43700000000001</v>
-      </c>
-      <c r="CF37">
-        <v>467.28800000000001</v>
-      </c>
-      <c r="CG37">
-        <v>507.17700000000002</v>
-      </c>
-      <c r="CH37">
-        <v>484.27600000000001</v>
-      </c>
-      <c r="CI37">
-        <v>460.63499999999999</v>
-      </c>
-      <c r="CJ37">
-        <v>498.19499999999999</v>
-      </c>
-      <c r="CK37">
-        <v>442.34399999999999</v>
-      </c>
-      <c r="CL37">
-        <v>438.95699999999999</v>
-      </c>
-      <c r="CM37">
-        <v>487.20699999999999</v>
-      </c>
-      <c r="CN37">
-        <v>500.79</v>
-      </c>
-      <c r="CO37">
-        <v>469.32499999999999</v>
-      </c>
-      <c r="CP37">
-        <v>479.25799999999998</v>
-      </c>
-      <c r="CQ37">
-        <v>482.262</v>
-      </c>
-      <c r="CR37">
-        <v>457.69</v>
-      </c>
-      <c r="CS37">
-        <v>518.43799999999999</v>
-      </c>
-      <c r="CT37">
-        <v>472.71899999999999</v>
-      </c>
-      <c r="CU37">
-        <v>439.80500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/2013-2021.xlsx
+++ b/2013-2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44581098807\Desktop\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B12E2A-308B-4C3C-97CC-09353E2827D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788DE630-00C7-4BE7-BE67-FBA1102B63AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="137">
   <si>
     <t>tipo_residuo</t>
   </si>
@@ -438,6 +438,9 @@
   <si>
     <t>Desconsiderando Escoria, Chorume, Cancelamentos E Saï¿½Das De Resï¿½Duos</t>
   </si>
+  <si>
+    <t>z</t>
+  </si>
 </sst>
 </file>
 
@@ -478,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -501,11 +504,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -544,6 +558,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -850,10 +867,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB56C50-FF62-4C38-99E2-568A1DC80133}">
   <dimension ref="A1:DD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="B22" sqref="B22:M22"/>
-      <selection pane="topRight" activeCell="CT35" sqref="CT35:CU35"/>
+      <selection pane="topRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,6 +1176,9 @@
       <c r="CU1" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="CV1" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="DA1" s="1"/>
       <c r="DD1" s="1"/>
     </row>
@@ -1274,6 +1294,42 @@
       <c r="AK2" s="18">
         <v>0</v>
       </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
       <c r="AX2" s="18">
         <v>1.37</v>
       </c>
@@ -2063,6 +2119,42 @@
       <c r="M5" s="18">
         <v>0</v>
       </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
       <c r="Z5" s="18">
         <v>0</v>
       </c>
@@ -2133,6 +2225,150 @@
         <v>0</v>
       </c>
       <c r="AW5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
         <v>0</v>
       </c>
       <c r="CT5" s="18">
@@ -2182,6 +2418,42 @@
       <c r="M6" s="18">
         <v>349827.25</v>
       </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
       <c r="Z6" s="18">
         <v>335743.47</v>
       </c>
@@ -3306,6 +3578,258 @@
       <c r="A10" t="s">
         <v>44</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
       <c r="CH10" s="18">
         <v>0</v>
       </c>
@@ -3353,6 +3877,114 @@
       <c r="A11" t="s">
         <v>45</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
       <c r="AL11" s="18">
         <v>0</v>
       </c>
@@ -3387,6 +4019,78 @@
         <v>0</v>
       </c>
       <c r="AW11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
         <v>0</v>
       </c>
       <c r="BV11" s="18">
@@ -4967,6 +5671,150 @@
       <c r="A17" t="s">
         <v>46</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
       <c r="AX17" s="18">
         <v>0</v>
       </c>
@@ -5122,6 +5970,42 @@
       <c r="A18" t="s">
         <v>47</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
       <c r="N18" s="18">
         <v>0</v>
       </c>
@@ -5385,6 +6269,222 @@
       <c r="A19" t="s">
         <v>48</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
       <c r="BV19" s="18">
         <v>0</v>
       </c>
@@ -5455,6 +6555,12 @@
         <v>0</v>
       </c>
       <c r="CS19" s="18">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>0</v>
+      </c>
+      <c r="CU19">
         <v>0</v>
       </c>
     </row>
@@ -5462,6 +6568,222 @@
       <c r="A20" t="s">
         <v>49</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
       <c r="BV20" s="18">
         <v>0</v>
       </c>
@@ -5545,11 +6867,521 @@
       <c r="A21" t="s">
         <v>50</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>0</v>
+      </c>
+      <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21">
+        <v>0</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>0</v>
+      </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
       <c r="BV22" s="18">
         <v>0</v>
       </c>
@@ -5633,6 +7465,258 @@
       <c r="A23" t="s">
         <v>52</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
+        <v>0</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
       <c r="CH23" s="18">
         <v>5466</v>
       </c>
@@ -6278,6 +8362,114 @@
       <c r="A26" t="s">
         <v>53</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
       <c r="AL26" s="18">
         <v>3239.86</v>
       </c>
@@ -6469,6 +8661,258 @@
       <c r="A27" t="s">
         <v>54</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>0</v>
+      </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27">
+        <v>0</v>
+      </c>
+      <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27">
+        <v>0</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
       <c r="CH27" s="18">
         <v>0</v>
       </c>
@@ -6815,6 +9259,222 @@
       <c r="A29" t="s">
         <v>55</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29">
+        <v>0</v>
+      </c>
       <c r="BV29" s="18">
         <v>0</v>
       </c>
@@ -6898,6 +9558,114 @@
       <c r="A30" t="s">
         <v>56</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
       <c r="AL30" s="18">
         <v>7.42</v>
       </c>
@@ -6932,6 +9700,114 @@
         <v>3.85</v>
       </c>
       <c r="AW30" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
+      <c r="BT30">
+        <v>0</v>
+      </c>
+      <c r="BU30">
+        <v>0</v>
+      </c>
+      <c r="BV30">
+        <v>0</v>
+      </c>
+      <c r="BW30">
+        <v>0</v>
+      </c>
+      <c r="BX30">
+        <v>0</v>
+      </c>
+      <c r="BY30">
+        <v>0</v>
+      </c>
+      <c r="BZ30">
+        <v>0</v>
+      </c>
+      <c r="CA30">
+        <v>0</v>
+      </c>
+      <c r="CB30">
+        <v>0</v>
+      </c>
+      <c r="CC30">
+        <v>0</v>
+      </c>
+      <c r="CD30">
+        <v>0</v>
+      </c>
+      <c r="CE30">
+        <v>0</v>
+      </c>
+      <c r="CF30">
+        <v>0</v>
+      </c>
+      <c r="CG30">
         <v>0</v>
       </c>
       <c r="CH30" s="18">
@@ -6981,6 +9857,222 @@
       <c r="A31" t="s">
         <v>57</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
+        <v>0</v>
+      </c>
       <c r="BV31" s="18">
         <v>0</v>
       </c>
@@ -7064,6 +10156,222 @@
       <c r="A32" t="s">
         <v>58</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>0</v>
+      </c>
+      <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
+        <v>0</v>
+      </c>
       <c r="BV32" s="18">
         <v>0</v>
       </c>
@@ -7779,6 +11087,42 @@
         <v>0</v>
       </c>
       <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35" s="18">
